--- a/biology/Botanique/Ibéris_des_rochers/Ibéris_des_rochers.xlsx
+++ b/biology/Botanique/Ibéris_des_rochers/Ibéris_des_rochers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ib%C3%A9ris_des_rochers</t>
+          <t>Ibéris_des_rochers</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Iberis saxatilis
 L'Ibéris des rochers (Iberis saxatilis) est une espèce de plantes à fleurs de la famille des Brassicaceae.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ib%C3%A9ris_des_rochers</t>
+          <t>Ibéris_des_rochers</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante de 5 à 10 cm proche de H. sempervirens mais plus petite et plus compacte, ses fleurs peuvent être teintées de pourpre. 
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ib%C3%A9ris_des_rochers</t>
+          <t>Ibéris_des_rochers</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle pousse sur les rochers et fissures. On la trouve au sud des Alpes, au sud du Massif central et à l'ouest des Pyrénées.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ib%C3%A9ris_des_rochers</t>
+          <t>Ibéris_des_rochers</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>L'index IPNI compte deux sous-espèces :
 Iberis saxatilis subsp. longistyla Ančev, 2006
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ib%C3%A9ris_des_rochers</t>
+          <t>Ibéris_des_rochers</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>H. petraea (Jordan).</t>
         </is>
